--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.206835666666667</v>
+        <v>2.792060333333334</v>
       </c>
       <c r="H2">
-        <v>9.620507</v>
+        <v>8.376181000000001</v>
       </c>
       <c r="I2">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="J2">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.219409666666667</v>
+        <v>6.117613666666667</v>
       </c>
       <c r="N2">
-        <v>9.658229</v>
+        <v>18.352841</v>
       </c>
       <c r="O2">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="P2">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="Q2">
-        <v>10.32411774467811</v>
+        <v>17.08074645335789</v>
       </c>
       <c r="R2">
-        <v>92.917059702103</v>
+        <v>153.726718080221</v>
       </c>
       <c r="S2">
-        <v>0.04099930091247985</v>
+        <v>0.05751974933025082</v>
       </c>
       <c r="T2">
-        <v>0.04099930091247984</v>
+        <v>0.05751974933025084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.206835666666667</v>
+        <v>2.792060333333334</v>
       </c>
       <c r="H3">
-        <v>9.620507</v>
+        <v>8.376181000000001</v>
       </c>
       <c r="I3">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="J3">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.98358</v>
       </c>
       <c r="O3">
-        <v>0.3321624117546936</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="P3">
-        <v>0.3321624117546935</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="Q3">
-        <v>16.01662625278444</v>
+        <v>13.94501978977556</v>
       </c>
       <c r="R3">
-        <v>144.14963627506</v>
+        <v>125.50517810798</v>
       </c>
       <c r="S3">
-        <v>0.06360548141550741</v>
+        <v>0.04696012817142368</v>
       </c>
       <c r="T3">
-        <v>0.06360548141550741</v>
+        <v>0.04696012817142369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.206835666666667</v>
+        <v>2.792060333333334</v>
       </c>
       <c r="H4">
-        <v>9.620507</v>
+        <v>8.376181000000001</v>
       </c>
       <c r="I4">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="J4">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.527049</v>
+        <v>3.555573333333333</v>
       </c>
       <c r="N4">
-        <v>10.581147</v>
+        <v>10.66672</v>
       </c>
       <c r="O4">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="P4">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="Q4">
-        <v>11.310666531281</v>
+        <v>9.927375266257778</v>
       </c>
       <c r="R4">
-        <v>101.795998781529</v>
+        <v>89.34637739632001</v>
       </c>
       <c r="S4">
-        <v>0.04491709917544752</v>
+        <v>0.03343063128896354</v>
       </c>
       <c r="T4">
-        <v>0.04491709917544752</v>
+        <v>0.03343063128896356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.206835666666667</v>
+        <v>2.792060333333334</v>
       </c>
       <c r="H5">
-        <v>9.620507</v>
+        <v>8.376181000000001</v>
       </c>
       <c r="I5">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="J5">
-        <v>0.1914891004057404</v>
+        <v>0.1656462876761766</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.295414</v>
+        <v>2.949887333333333</v>
       </c>
       <c r="N5">
-        <v>9.886241999999999</v>
+        <v>8.849661999999999</v>
       </c>
       <c r="O5">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493113</v>
       </c>
       <c r="P5">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493114</v>
       </c>
       <c r="Q5">
-        <v>10.56785115163266</v>
+        <v>8.236263411202444</v>
       </c>
       <c r="R5">
-        <v>95.110660364694</v>
+        <v>74.12637070082199</v>
       </c>
       <c r="S5">
-        <v>0.04196721890230564</v>
+        <v>0.02773577888553854</v>
       </c>
       <c r="T5">
-        <v>0.04196721890230564</v>
+        <v>0.02773577888553855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.041307</v>
       </c>
       <c r="I6">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="J6">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.219409666666667</v>
+        <v>6.117613666666667</v>
       </c>
       <c r="N6">
-        <v>9.658229</v>
+        <v>18.352841</v>
       </c>
       <c r="O6">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="P6">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="Q6">
-        <v>18.28764949614478</v>
+        <v>34.75071086702078</v>
       </c>
       <c r="R6">
-        <v>164.588845465303</v>
+        <v>312.756397803187</v>
       </c>
       <c r="S6">
-        <v>0.07262420511049462</v>
+        <v>0.1170237017203722</v>
       </c>
       <c r="T6">
-        <v>0.07262420511049461</v>
+        <v>0.1170237017203722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.041307</v>
       </c>
       <c r="I7">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="J7">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.98358</v>
       </c>
       <c r="O7">
-        <v>0.3321624117546936</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="P7">
-        <v>0.3321624117546935</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="Q7">
         <v>28.37108741545111</v>
@@ -883,10 +883,10 @@
         <v>255.33978673906</v>
       </c>
       <c r="S7">
-        <v>0.1126677144649919</v>
+        <v>0.09554019438316573</v>
       </c>
       <c r="T7">
-        <v>0.1126677144649919</v>
+        <v>0.09554019438316574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.041307</v>
       </c>
       <c r="I8">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="J8">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.527049</v>
+        <v>3.555573333333333</v>
       </c>
       <c r="N8">
-        <v>10.581147</v>
+        <v>10.66672</v>
       </c>
       <c r="O8">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="P8">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="Q8">
-        <v>20.035174937681</v>
+        <v>20.19720557811556</v>
       </c>
       <c r="R8">
-        <v>180.316574439129</v>
+        <v>181.77485020304</v>
       </c>
       <c r="S8">
-        <v>0.07956400599243346</v>
+        <v>0.06801448667346534</v>
       </c>
       <c r="T8">
-        <v>0.07956400599243346</v>
+        <v>0.06801448667346534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.041307</v>
       </c>
       <c r="I9">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="J9">
-        <v>0.3391946544156194</v>
+        <v>0.3370067148381872</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.295414</v>
+        <v>2.949887333333333</v>
       </c>
       <c r="N9">
-        <v>9.886241999999999</v>
+        <v>8.849661999999999</v>
       </c>
       <c r="O9">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493113</v>
       </c>
       <c r="P9">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493114</v>
       </c>
       <c r="Q9">
-        <v>18.71938722203267</v>
+        <v>16.75664522091489</v>
       </c>
       <c r="R9">
-        <v>168.474484998294</v>
+        <v>150.809806988234</v>
       </c>
       <c r="S9">
-        <v>0.07433872884769935</v>
+        <v>0.05642833206118399</v>
       </c>
       <c r="T9">
-        <v>0.07433872884769933</v>
+        <v>0.05642833206118399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.061238666666667</v>
+        <v>4.041018999999999</v>
       </c>
       <c r="H10">
-        <v>12.183716</v>
+        <v>12.123057</v>
       </c>
       <c r="I10">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074607</v>
       </c>
       <c r="J10">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.219409666666667</v>
+        <v>6.117613666666667</v>
       </c>
       <c r="N10">
-        <v>9.658229</v>
+        <v>18.352841</v>
       </c>
       <c r="O10">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="P10">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="Q10">
-        <v>13.07479102210711</v>
+        <v>24.72139306165966</v>
       </c>
       <c r="R10">
-        <v>117.673119198964</v>
+        <v>222.492537554937</v>
       </c>
       <c r="S10">
-        <v>0.05192281846644833</v>
+        <v>0.08324977692773622</v>
       </c>
       <c r="T10">
-        <v>0.05192281846644832</v>
+        <v>0.08324977692773625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.061238666666667</v>
+        <v>4.041018999999999</v>
       </c>
       <c r="H11">
-        <v>12.183716</v>
+        <v>12.123057</v>
       </c>
       <c r="I11">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074607</v>
       </c>
       <c r="J11">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074608</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.98358</v>
       </c>
       <c r="O11">
-        <v>0.3321624117546936</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="P11">
-        <v>0.3321624117546935</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="Q11">
-        <v>20.28396482036445</v>
+        <v>20.18297715600666</v>
       </c>
       <c r="R11">
-        <v>182.55568338328</v>
+        <v>181.64679440406</v>
       </c>
       <c r="S11">
-        <v>0.08055200433925368</v>
+        <v>0.06796657218241522</v>
       </c>
       <c r="T11">
-        <v>0.08055200433925366</v>
+        <v>0.06796657218241525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.061238666666667</v>
+        <v>4.041018999999999</v>
       </c>
       <c r="H12">
-        <v>12.183716</v>
+        <v>12.123057</v>
       </c>
       <c r="I12">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074607</v>
       </c>
       <c r="J12">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074608</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.527049</v>
+        <v>3.555573333333333</v>
       </c>
       <c r="N12">
-        <v>10.581147</v>
+        <v>10.66672</v>
       </c>
       <c r="O12">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="P12">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="Q12">
-        <v>14.324187778028</v>
+        <v>14.36813939589333</v>
       </c>
       <c r="R12">
-        <v>128.917690002252</v>
+        <v>129.31325456304</v>
       </c>
       <c r="S12">
-        <v>0.05688444277390857</v>
+        <v>0.04838499175962034</v>
       </c>
       <c r="T12">
-        <v>0.05688444277390856</v>
+        <v>0.04838499175962036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.061238666666667</v>
+        <v>4.041018999999999</v>
       </c>
       <c r="H13">
-        <v>12.183716</v>
+        <v>12.123057</v>
       </c>
       <c r="I13">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074607</v>
       </c>
       <c r="J13">
-        <v>0.242507886168476</v>
+        <v>0.2397440298074608</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.295414</v>
+        <v>2.949887333333333</v>
       </c>
       <c r="N13">
-        <v>9.886241999999999</v>
+        <v>8.849661999999999</v>
       </c>
       <c r="O13">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493113</v>
       </c>
       <c r="P13">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493114</v>
       </c>
       <c r="Q13">
-        <v>13.38346275947467</v>
+        <v>11.92055076185933</v>
       </c>
       <c r="R13">
-        <v>120.451164835272</v>
+        <v>107.284956856734</v>
       </c>
       <c r="S13">
-        <v>0.0531486205888654</v>
+        <v>0.04014268893768892</v>
       </c>
       <c r="T13">
-        <v>0.05314862058886539</v>
+        <v>0.04014268893768894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.798321333333333</v>
+        <v>4.342041333333333</v>
       </c>
       <c r="H14">
-        <v>11.394964</v>
+        <v>13.026124</v>
       </c>
       <c r="I14">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="J14">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.219409666666667</v>
+        <v>6.117613666666667</v>
       </c>
       <c r="N14">
-        <v>9.658229</v>
+        <v>18.352841</v>
       </c>
       <c r="O14">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="P14">
-        <v>0.2141077524809907</v>
+        <v>0.3472444214548092</v>
       </c>
       <c r="Q14">
-        <v>12.22835241763956</v>
+        <v>26.56293140203156</v>
       </c>
       <c r="R14">
-        <v>110.055171758756</v>
+        <v>239.066382618284</v>
       </c>
       <c r="S14">
-        <v>0.04856142799156792</v>
+        <v>0.08945119347644996</v>
       </c>
       <c r="T14">
-        <v>0.04856142799156791</v>
+        <v>0.08945119347644997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.798321333333333</v>
+        <v>4.342041333333333</v>
       </c>
       <c r="H15">
-        <v>11.394964</v>
+        <v>13.026124</v>
       </c>
       <c r="I15">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="J15">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.98358</v>
       </c>
       <c r="O15">
-        <v>0.3321624117546936</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="P15">
-        <v>0.3321624117546935</v>
+        <v>0.2834964117229506</v>
       </c>
       <c r="Q15">
-        <v>18.97081718790222</v>
+        <v>21.68644122710222</v>
       </c>
       <c r="R15">
-        <v>170.73735469112</v>
+        <v>195.17797104392</v>
       </c>
       <c r="S15">
-        <v>0.07533721153494051</v>
+        <v>0.07302951698594598</v>
       </c>
       <c r="T15">
-        <v>0.07533721153494051</v>
+        <v>0.07302951698594599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.798321333333333</v>
+        <v>4.342041333333333</v>
       </c>
       <c r="H16">
-        <v>11.394964</v>
+        <v>13.026124</v>
       </c>
       <c r="I16">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="J16">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.527049</v>
+        <v>3.555573333333333</v>
       </c>
       <c r="N16">
-        <v>10.581147</v>
+        <v>10.66672</v>
       </c>
       <c r="O16">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="P16">
-        <v>0.2345673935502023</v>
+        <v>0.2018193812729289</v>
       </c>
       <c r="Q16">
-        <v>13.396865460412</v>
+        <v>15.43844637703111</v>
       </c>
       <c r="R16">
-        <v>120.571789143708</v>
+        <v>138.94601739328</v>
       </c>
       <c r="S16">
-        <v>0.05320184560841276</v>
+        <v>0.05198927155087969</v>
       </c>
       <c r="T16">
-        <v>0.05320184560841276</v>
+        <v>0.05198927155087969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.798321333333333</v>
+        <v>4.342041333333333</v>
       </c>
       <c r="H17">
-        <v>11.394964</v>
+        <v>13.026124</v>
       </c>
       <c r="I17">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="J17">
-        <v>0.2268083590101642</v>
+        <v>0.2576029676781755</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.295414</v>
+        <v>2.949887333333333</v>
       </c>
       <c r="N17">
-        <v>9.886241999999999</v>
+        <v>8.849661999999999</v>
       </c>
       <c r="O17">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493113</v>
       </c>
       <c r="P17">
-        <v>0.2191624422141134</v>
+        <v>0.1674397855493114</v>
       </c>
       <c r="Q17">
-        <v>12.51704129836533</v>
+        <v>12.80853273000978</v>
       </c>
       <c r="R17">
-        <v>112.653371685288</v>
+        <v>115.276794570088</v>
       </c>
       <c r="S17">
-        <v>0.04970787387524299</v>
+        <v>0.04313298566489989</v>
       </c>
       <c r="T17">
-        <v>0.04970787387524298</v>
+        <v>0.0431329856648999</v>
       </c>
     </row>
   </sheetData>
